--- a/1.Server/2.Midware/_excel/option.xlsx
+++ b/1.Server/2.Midware/_excel/option.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KFrame\1.Server\1.Frame\_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KFrame\1.Server\2.Midware\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="0" windowWidth="26175" windowHeight="13065"/>
+    <workbookView xWindow="4410" yWindow="0" windowWidth="26175" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Description</t>
   </si>
@@ -147,19 +147,28 @@
     <t>转发集群名字</t>
   </si>
   <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>转发集群秘钥</t>
+  </si>
+  <si>
+    <t>clusterkey</t>
+  </si>
+  <si>
+    <t>route@kframe,./</t>
+  </si>
+  <si>
+    <t>角色名字最大长度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>playernamelength</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>clustername</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>转发集群秘钥</t>
-  </si>
-  <si>
-    <t>clusterkey</t>
-  </si>
-  <si>
-    <t>route@kframe,./</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -773,12 +782,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="31" customWidth="1"/>
     <col min="3" max="3" width="9" style="31" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="5" bestFit="1" customWidth="1"/>
@@ -878,16 +887,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -896,20 +905,30 @@
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="29">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="19">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
